--- a/2018init_form.xlsx
+++ b/2018init_form.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="statistics" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="292">
   <si>
     <t>ver_code</t>
   </si>
@@ -189,9 +189,6 @@
     <t>19A</t>
   </si>
   <si>
-    <t>19B</t>
-  </si>
-  <si>
     <t>20A</t>
   </si>
   <si>
@@ -213,10 +210,6 @@
     <t>22B</t>
   </si>
   <si>
-    <t>Player_id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Player_count</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -330,9 +323,6 @@
   </si>
   <si>
     <t>28A</t>
-  </si>
-  <si>
-    <t>28B</t>
   </si>
   <si>
     <t>KV52</t>
@@ -835,89 +825,131 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>第二十二屆風城杯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>翁瑋辰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qual_StarttargetNum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>Starter</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>C_Grad_M</t>
+  </si>
+  <si>
+    <t>C_Grad_F</t>
+  </si>
+  <si>
+    <t>o1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>o2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>26A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>26B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>26C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>27A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>29A</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>27B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>29A</t>
+  </si>
+  <si>
     <t>29B</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二十二屆風城杯</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>翁瑋辰</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>20C</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qual_StarttargetNum</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>Starter</t>
-  </si>
-  <si>
-    <t>10A</t>
-  </si>
-  <si>
-    <t>C_Grad_M</t>
-  </si>
-  <si>
-    <t>C_Grad_F</t>
-  </si>
-  <si>
-    <t>o1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>25A</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>25B</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>25C</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>o2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>26A</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>26B</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>26C</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>27A</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>29A</t>
+  </si>
+  <si>
+    <t>30A</t>
+  </si>
+  <si>
+    <t>30B</t>
+  </si>
+  <si>
+    <t>Player_id</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>19B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>23C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂曉騏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>31A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>32A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -925,7 +957,26 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>27B</t>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>30B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>27C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>16C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>28A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>28B</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -936,7 +987,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1122,6 +1173,13 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444950"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1564,7 +1622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1584,6 +1642,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1631,7 +1692,77 @@
     <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1657,8 +1788,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1971,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="A1:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1983,7 +2114,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2003,15 +2134,15 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -2023,7 +2154,7 @@
         <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
@@ -2033,27 +2164,27 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
         <v>132</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>133</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>134</v>
-      </c>
-      <c r="D4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <f>COUNTIF(player_data!$B:$B,"="&amp;B3)</f>
@@ -2065,20 +2196,20 @@
       </c>
       <c r="D5">
         <f>COUNTIF(player_data!$B:$B,"="&amp;D3)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <f>COUNTIF(player_data!$B:$B,"="&amp;E3)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <f>COUNTIF(player_data!$B:$B,"="&amp;F3)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>32</v>
@@ -2098,7 +2229,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -2118,77 +2249,76 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B8" s="2">
         <f>ROUNDUP(B5/3,0)</f>
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <f>ROUNDUP(C5/3,0)</f>
-        <v>6</v>
+        <f>ROUNDUP(C5/3,0)+B8</f>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:F8" si="0">ROUNDUP(D5/3,0)</f>
-        <v>4</v>
+        <f t="shared" ref="D8:F8" si="0">ROUNDUP(D5/3,0)+C8</f>
+        <v>24</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>ROUNDUP(E5/3,0)+D8</f>
+        <v>27</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
       </c>
       <c r="F9" s="2">
-        <f>F6/2</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
         <f>B9+B10</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ref="D10:F10" si="1">C9+C10</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2208,7 +2338,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -2228,7 +2358,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -2248,7 +2378,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -2268,7 +2398,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -2288,7 +2418,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -2308,7 +2438,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -2328,7 +2458,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B18">
         <v>240</v>
@@ -2348,7 +2478,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B19">
         <v>120</v>
@@ -2368,7 +2498,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B20">
         <v>120</v>
@@ -2388,7 +2518,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -2408,11 +2538,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B22">
         <f>COUNTIF(verification!C:C,"&gt; 0")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2426,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="A1:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2443,12 +2573,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2463,7 +2593,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <f>B2+1</f>
@@ -2479,7 +2609,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B35" si="0">B3+1</f>
@@ -2495,7 +2625,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -2511,7 +2641,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -2527,7 +2657,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -2543,7 +2673,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -2559,7 +2689,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -2575,7 +2705,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -2591,7 +2721,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -2607,7 +2737,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -2623,7 +2753,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -2639,7 +2769,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -2655,7 +2785,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -2671,7 +2801,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -2687,7 +2817,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -2703,7 +2833,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -2719,7 +2849,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -2735,7 +2865,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -2751,7 +2881,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -2767,7 +2897,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -2783,7 +2913,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -2799,7 +2929,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -2807,7 +2937,7 @@
       </c>
       <c r="C24">
         <f>COUNTIFS(player_data!A:A,"&lt;="&amp;B24&amp;"D",player_data!A:A,"&gt;="&amp;B24&amp;"A")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2">
         <v>-1</v>
@@ -2815,7 +2945,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
@@ -2831,7 +2961,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
@@ -2847,7 +2977,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
@@ -2863,7 +2993,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
@@ -2879,7 +3009,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
@@ -2887,7 +3017,7 @@
       </c>
       <c r="C29" s="2">
         <f>COUNTIFS(player_data!A:A,"&lt;="&amp;B29&amp;"D",player_data!A:A,"&gt;="&amp;B29&amp;"A")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2">
         <v>-1</v>
@@ -2895,7 +3025,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
@@ -2911,7 +3041,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
@@ -2919,7 +3049,7 @@
       </c>
       <c r="C31" s="2">
         <f>COUNTIFS(player_data!A:A,"&lt;="&amp;B31&amp;"D",player_data!A:A,"&gt;="&amp;B31&amp;"A")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2">
         <v>-1</v>
@@ -2927,7 +3057,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
@@ -2935,7 +3065,7 @@
       </c>
       <c r="C32" s="2">
         <f>COUNTIFS(player_data!A:A,"&lt;="&amp;B32&amp;"D",player_data!A:A,"&gt;="&amp;B32&amp;"A")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2">
         <v>-1</v>
@@ -2943,7 +3073,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
@@ -2951,7 +3081,7 @@
       </c>
       <c r="C33" s="2">
         <f>COUNTIFS(player_data!A:A,"&lt;="&amp;B33&amp;"D",player_data!A:A,"&gt;="&amp;B33&amp;"A")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2">
         <v>-1</v>
@@ -2959,7 +3089,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" si="0"/>
@@ -2975,7 +3105,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B35" s="2">
         <f t="shared" si="0"/>
@@ -3000,8 +3130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:A80"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3011,7 +3141,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -3025,44 +3155,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>281</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3073,38 +3203,38 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3115,10 +3245,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3129,10 +3259,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3143,10 +3273,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3157,10 +3287,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3171,10 +3301,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3185,10 +3315,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3199,10 +3329,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3213,10 +3343,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3227,10 +3357,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3241,10 +3371,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3255,10 +3385,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3269,10 +3399,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3283,10 +3413,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3297,10 +3427,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3311,10 +3441,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3325,10 +3455,10 @@
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3339,10 +3469,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3353,10 +3483,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3367,10 +3497,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3381,10 +3511,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3395,24 +3525,24 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -3424,10 +3554,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3438,10 +3568,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3452,10 +3582,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3466,24 +3596,24 @@
         <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3494,10 +3624,10 @@
         <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3508,10 +3638,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3522,10 +3652,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3536,81 +3666,81 @@
         <v>6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3621,10 +3751,10 @@
         <v>29</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3635,10 +3765,10 @@
         <v>29</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3649,10 +3779,10 @@
         <v>29</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3663,10 +3793,10 @@
         <v>29</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3677,10 +3807,10 @@
         <v>29</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3691,10 +3821,10 @@
         <v>29</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3705,10 +3835,10 @@
         <v>29</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3719,10 +3849,10 @@
         <v>29</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3733,10 +3863,10 @@
         <v>29</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3747,10 +3877,10 @@
         <v>29</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3761,10 +3891,10 @@
         <v>29</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3775,10 +3905,10 @@
         <v>29</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="2"/>
@@ -3793,10 +3923,10 @@
         <v>29</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="2"/>
@@ -3805,379 +3935,423 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>54</v>
+        <v>278</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>86</v>
+        <v>279</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>221</v>
+      <c r="C69" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>210</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
+      <c r="A84" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="A85" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
+      <c r="A86" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C87" s="3"/>
@@ -4248,6 +4422,12 @@
     <sortCondition ref="A1:A81" customList="1A,1B,1C,1D,2A,2B,2C,2D,3A,3B,3C,3D,4A,4B,4C,4D,5A,5B,5C,5D,6A,6B,6C,6D,7A,7B,7C,7D,8A,8B,8C,8D,9A,9B,9C,9D,10A,10B,10C,10D,11A,11B,11C,11D,12A,12B,12C,12D,13A,13B,13C,13D,14A,14B,14C,14D,15A,15B,15C,15D,16A,16B,16C,16D,17A,17B,17C,17D,18A,18B,18C,18D,19A"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="A7:A86">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A86">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4257,8 +4437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4268,33 +4448,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -4302,16 +4482,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
@@ -4319,13 +4499,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -4336,10 +4516,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -4353,10 +4533,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -4370,10 +4550,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
@@ -4387,16 +4567,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>39</v>
@@ -4404,27 +4584,27 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>41</v>
@@ -4438,10 +4618,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>42</v>
@@ -4455,16 +4635,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>289</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>47</v>
@@ -4472,70 +4652,70 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4543,16 +4723,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>96</v>
+        <v>290</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>97</v>
+        <v>291</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4560,24 +4740,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C18" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
